--- a/codeforces/status.xlsx
+++ b/codeforces/status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omsur\OneDrive\Documents\coding\gfg\DSA\codeforces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE90A91-B275-4186-8B58-3580757833CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02350863-9CFF-43B2-8207-0DA6ECBB7A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Contest</t>
   </si>
@@ -43,13 +43,73 @@
   </si>
   <si>
     <t>clear?</t>
+  </si>
+  <si>
+    <t>878 Div3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>String, implementation</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>Time Taken</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinatornics </t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1840/problem/C</t>
+  </si>
+  <si>
+    <t>Tries</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1743/problem/A</t>
+  </si>
+  <si>
+    <t>Educational Rouond 137</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>combinatornics,bruteforce</t>
+  </si>
+  <si>
+    <t>10 min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +125,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -82,15 +162,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,21 +508,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="6" width="18" customWidth="1"/>
+    <col min="1" max="2" width="17.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,9 +544,142 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7">
+        <v>30</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{670BA06D-664C-4905-B4FA-A4F7B05D34BD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>